--- a/+Soma/somaDoc_BS.xlsx
+++ b/+Soma/somaDoc_BS.xlsx
@@ -10,44 +10,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>first run: 0.98 prob | 1500 borderSize</t>
-  </si>
-  <si>
-    <t>second run: 0.99 prob | 2000 borderSize</t>
-  </si>
-  <si>
-    <t>third run: 0.995 prob | 2250 borderSize</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>b but merges into soma</t>
-  </si>
-  <si>
-    <t>b)</t>
-  </si>
-  <si>
-    <t>was tried to agglomerated but is no neuron so it can be removed, however it is not listed in the agglomerateSomas file because the indices would be shifted</t>
   </si>
   <si>
     <t>glia</t>
@@ -418,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -438,62 +410,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -501,1124 +447,686 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="D63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="D68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="D69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="D70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="D71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="D73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="D77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="D78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="D79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="D85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="D86" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="D87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="D89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="D92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="D94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="D95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="D97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="D98" t="s">
-        <v>5</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="D102" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="D103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="D104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="D106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="D107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="D108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="D110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="D112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="D113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="D114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="D115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="D116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="D117" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="D119" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="D120" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="D121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="D122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="D123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="D124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>125</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/+Soma/somaDoc_BS.xlsx
+++ b/+Soma/somaDoc_BS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="4">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -135,18 +135,18 @@
   </sheetPr>
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.0883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.7488372093023"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,6 +337,9 @@
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/+Soma/somaDoc_BS.xlsx
+++ b/+Soma/somaDoc_BS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -372,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -921,6 +921,9 @@
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -1038,6 +1041,9 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
